--- a/Gangnam_edit2/Gwanakgu_edit2.xlsx
+++ b/Gangnam_edit2/Gwanakgu_edit2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangnam_edit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_9596DE979E9732CFFE170B21EB55A6D246E4E295" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{66E414E8-E252-4654-BF61-270A5215DC85}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -256,174 +262,178 @@
     <t>관악캠퍼스타워</t>
   </si>
   <si>
-    <t>대창센시티1차</t>
-  </si>
-  <si>
-    <t>대창센시티2차</t>
+    <t>동원낙성대</t>
+  </si>
+  <si>
+    <t>48세대(총1개동)</t>
+  </si>
+  <si>
+    <t>6층/8층</t>
+  </si>
+  <si>
+    <t>2004년 07월 07일</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>동원메이드건설(주)</t>
+  </si>
+  <si>
+    <t>개별난방, 도시가스</t>
+  </si>
+  <si>
+    <t>72㎡</t>
+  </si>
+  <si>
+    <t>86㎡</t>
+  </si>
+  <si>
+    <t>90㎡</t>
+  </si>
+  <si>
+    <t>90.71㎡/66.21㎡(전용률 73%)</t>
+  </si>
+  <si>
+    <t>141.42㎡/114.79㎡(전용률 81%)</t>
+  </si>
+  <si>
+    <t>90㎡/74.75㎡(전용률 83%)</t>
+  </si>
+  <si>
+    <t>3개</t>
+  </si>
+  <si>
+    <t>4개</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>2개</t>
+  </si>
+  <si>
+    <t>계단식</t>
+  </si>
+  <si>
+    <t>복합식</t>
+  </si>
+  <si>
+    <t>50세대</t>
+  </si>
+  <si>
+    <t>46세대</t>
+  </si>
+  <si>
+    <t>1세대</t>
+  </si>
+  <si>
+    <t>108㎡</t>
+  </si>
+  <si>
+    <t>97㎡</t>
+  </si>
+  <si>
+    <t>108.94㎡/84.86㎡(전용률 78%)</t>
+  </si>
+  <si>
+    <t>97.83㎡/80.59㎡(전용률 82%)</t>
+  </si>
+  <si>
+    <t>47세대</t>
+  </si>
+  <si>
+    <t>6세대</t>
+  </si>
+  <si>
+    <t>141㎡</t>
+  </si>
+  <si>
+    <t>102A㎡</t>
+  </si>
+  <si>
+    <t>102.16㎡/84.95㎡(전용률 83%)</t>
+  </si>
+  <si>
+    <t>102B㎡</t>
+  </si>
+  <si>
+    <t>102.5㎡/84.96㎡(전용률 83%)</t>
+  </si>
+  <si>
+    <t>105㎡</t>
+  </si>
+  <si>
+    <t>105.92㎡/88.52㎡(전용률 84%)</t>
+  </si>
+  <si>
+    <t>2세대</t>
+  </si>
+  <si>
+    <t>114A㎡</t>
+  </si>
+  <si>
+    <t>114.38㎡/95.73㎡(전용률 84%)</t>
+  </si>
+  <si>
+    <t>14세대</t>
+  </si>
+  <si>
+    <t>116B㎡</t>
+  </si>
+  <si>
+    <t>116.57㎡/97.32㎡(전용률 83%)</t>
+  </si>
+  <si>
+    <t>122㎡</t>
+  </si>
+  <si>
+    <t>122.53㎡/101.27㎡(전용률 83%)</t>
+  </si>
+  <si>
+    <t>135㎡</t>
+  </si>
+  <si>
+    <t>135.01㎡/112.28㎡(전용률 83%)</t>
+  </si>
+  <si>
+    <t>5세대</t>
+  </si>
+  <si>
+    <t>167㎡</t>
+  </si>
+  <si>
+    <t>167.92㎡/140.91㎡(전용률 84%)</t>
+  </si>
+  <si>
+    <t>관악산대창센시티(101동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악산대창센시티(201동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예촌</t>
-  </si>
-  <si>
-    <t>우정하이비전II</t>
-  </si>
-  <si>
-    <t>한일유앤아이</t>
-  </si>
-  <si>
-    <t>동원낙성대</t>
-  </si>
-  <si>
-    <t>48세대(총1개동)</t>
-  </si>
-  <si>
-    <t>6층/8층</t>
-  </si>
-  <si>
-    <t>2004년 07월 07일</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>동원메이드건설(주)</t>
-  </si>
-  <si>
-    <t>개별난방, 도시가스</t>
-  </si>
-  <si>
-    <t>72㎡</t>
-  </si>
-  <si>
-    <t>86㎡</t>
-  </si>
-  <si>
-    <t>90㎡</t>
-  </si>
-  <si>
-    <t>90.71㎡/66.21㎡(전용률 73%)</t>
-  </si>
-  <si>
-    <t>141.42㎡/114.79㎡(전용률 81%)</t>
-  </si>
-  <si>
-    <t>90㎡/74.75㎡(전용률 83%)</t>
-  </si>
-  <si>
-    <t>3개</t>
-  </si>
-  <si>
-    <t>4개</t>
-  </si>
-  <si>
-    <t>1개</t>
-  </si>
-  <si>
-    <t>2개</t>
-  </si>
-  <si>
-    <t>계단식</t>
-  </si>
-  <si>
-    <t>복합식</t>
-  </si>
-  <si>
-    <t>50세대</t>
-  </si>
-  <si>
-    <t>46세대</t>
-  </si>
-  <si>
-    <t>1세대</t>
-  </si>
-  <si>
-    <t>108㎡</t>
-  </si>
-  <si>
-    <t>97㎡</t>
-  </si>
-  <si>
-    <t>108.94㎡/84.86㎡(전용률 78%)</t>
-  </si>
-  <si>
-    <t>97.83㎡/80.59㎡(전용률 82%)</t>
-  </si>
-  <si>
-    <t>47세대</t>
-  </si>
-  <si>
-    <t>6세대</t>
-  </si>
-  <si>
-    <t>141㎡</t>
-  </si>
-  <si>
-    <t>102A㎡</t>
-  </si>
-  <si>
-    <t>102.16㎡/84.95㎡(전용률 83%)</t>
-  </si>
-  <si>
-    <t>102B㎡</t>
-  </si>
-  <si>
-    <t>102.5㎡/84.96㎡(전용률 83%)</t>
-  </si>
-  <si>
-    <t>105㎡</t>
-  </si>
-  <si>
-    <t>105.92㎡/88.52㎡(전용률 84%)</t>
-  </si>
-  <si>
-    <t>2세대</t>
-  </si>
-  <si>
-    <t>114A㎡</t>
-  </si>
-  <si>
-    <t>114.38㎡/95.73㎡(전용률 84%)</t>
-  </si>
-  <si>
-    <t>14세대</t>
-  </si>
-  <si>
-    <t>116B㎡</t>
-  </si>
-  <si>
-    <t>116.57㎡/97.32㎡(전용률 83%)</t>
-  </si>
-  <si>
-    <t>122㎡</t>
-  </si>
-  <si>
-    <t>122.53㎡/101.27㎡(전용률 83%)</t>
-  </si>
-  <si>
-    <t>135㎡</t>
-  </si>
-  <si>
-    <t>135.01㎡/112.28㎡(전용률 83%)</t>
-  </si>
-  <si>
-    <t>5세대</t>
-  </si>
-  <si>
-    <t>167㎡</t>
-  </si>
-  <si>
-    <t>167.92㎡/140.91㎡(전용률 84%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악우정하이비젼2단지</t>
+  </si>
+  <si>
+    <t>남현한일유앤아이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -431,8 +441,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -478,15 +495,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,9 +585,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,6 +637,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -769,14 +830,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -1023,7 +1089,7 @@
         <v>1998.01</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>23</v>
       </c>
@@ -1031,7 +1097,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1040,43 +1106,43 @@
         <v>2005.08</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" t="s">
         <v>95</v>
       </c>
-      <c r="T3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" t="s">
-        <v>100</v>
-      </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="W3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>100</v>
-      </c>
       <c r="AB3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AC3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>24</v>
       </c>
@@ -1084,7 +1150,7 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -1093,7 +1159,7 @@
         <v>2008.08</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>69</v>
       </c>
@@ -1101,7 +1167,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1110,7 +1176,7 @@
         <v>2004.05</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>72</v>
       </c>
@@ -1118,7 +1184,7 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>124</v>
@@ -1127,61 +1193,61 @@
         <v>2003.06</v>
       </c>
       <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>96</v>
+      </c>
+      <c r="V6" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" t="s">
         <v>93</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="T6" t="s">
-        <v>99</v>
-      </c>
-      <c r="U6" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" t="s">
-        <v>102</v>
-      </c>
-      <c r="W6" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>101</v>
-      </c>
       <c r="AB6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AD6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG6" t="s">
         <v>96</v>
       </c>
-      <c r="AF6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>101</v>
-      </c>
       <c r="AH6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AI6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>93</v>
       </c>
@@ -1189,7 +1255,7 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1198,7 +1264,7 @@
         <v>2005.03</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -1206,7 +1272,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1215,223 +1281,225 @@
         <v>2004.07</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" t="s">
+      <c r="N8" t="s">
         <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
       </c>
       <c r="O8">
         <v>24470</v>
       </c>
       <c r="P8">
-        <v>37.47646</v>
+        <v>37.476460000000003</v>
       </c>
       <c r="Q8">
         <v>126.96216</v>
       </c>
       <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV8" t="s">
         <v>94</v>
       </c>
-      <c r="S8" t="s">
+      <c r="BW8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX8" t="s">
         <v>97</v>
       </c>
-      <c r="T8" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="BY8" t="s">
         <v>101</v>
-      </c>
-      <c r="V8" t="s">
-        <v>103</v>
-      </c>
-      <c r="W8" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>